--- a/Code/Results/Cases/Case_2_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003501820257063</v>
+        <v>1.03448393990524</v>
       </c>
       <c r="D2">
-        <v>1.02579905568435</v>
+        <v>1.043749958186429</v>
       </c>
       <c r="E2">
-        <v>1.022394545332612</v>
+        <v>1.051573381290483</v>
       </c>
       <c r="F2">
-        <v>1.029800344658973</v>
+        <v>1.056725289445023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049610575630136</v>
+        <v>1.036513421144449</v>
       </c>
       <c r="J2">
-        <v>1.025578294586543</v>
+        <v>1.03960293354099</v>
       </c>
       <c r="K2">
-        <v>1.036910298802175</v>
+        <v>1.046522945324339</v>
       </c>
       <c r="L2">
-        <v>1.033550461623139</v>
+        <v>1.05432450838179</v>
       </c>
       <c r="M2">
-        <v>1.040859556365805</v>
+        <v>1.059462212687779</v>
       </c>
       <c r="N2">
-        <v>1.027034733400334</v>
+        <v>1.041079288950741</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008342210514619</v>
+        <v>1.035490721134951</v>
       </c>
       <c r="D3">
-        <v>1.029615915310339</v>
+        <v>1.044554239357529</v>
       </c>
       <c r="E3">
-        <v>1.02676666238342</v>
+        <v>1.052565616933042</v>
       </c>
       <c r="F3">
-        <v>1.034289757254064</v>
+        <v>1.05772117011777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051056164001834</v>
+        <v>1.03671883634696</v>
       </c>
       <c r="J3">
-        <v>1.028608013311166</v>
+        <v>1.040252575667629</v>
       </c>
       <c r="K3">
-        <v>1.039883375418462</v>
+        <v>1.04713834262913</v>
       </c>
       <c r="L3">
-        <v>1.037068141247401</v>
+        <v>1.055128955602534</v>
       </c>
       <c r="M3">
-        <v>1.044501916417934</v>
+        <v>1.060271325536641</v>
       </c>
       <c r="N3">
-        <v>1.030068754673056</v>
+        <v>1.041729853643715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011404903378829</v>
+        <v>1.036142181717929</v>
       </c>
       <c r="D4">
-        <v>1.03203133107639</v>
+        <v>1.045074307479887</v>
       </c>
       <c r="E4">
-        <v>1.029543281985542</v>
+        <v>1.05320849848678</v>
       </c>
       <c r="F4">
-        <v>1.037136802720275</v>
+        <v>1.058365977726534</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051955620788114</v>
+        <v>1.036849849364788</v>
       </c>
       <c r="J4">
-        <v>1.030521302389311</v>
+        <v>1.04067235798581</v>
       </c>
       <c r="K4">
-        <v>1.041757945622819</v>
+        <v>1.047535538723946</v>
       </c>
       <c r="L4">
-        <v>1.039297756115507</v>
+        <v>1.055649709693872</v>
       </c>
       <c r="M4">
-        <v>1.046806763961502</v>
+        <v>1.060794666604938</v>
       </c>
       <c r="N4">
-        <v>1.031984760841149</v>
+        <v>1.042150232100938</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012676477183876</v>
+        <v>1.03641605683796</v>
       </c>
       <c r="D5">
-        <v>1.033034188108229</v>
+        <v>1.045292858037538</v>
       </c>
       <c r="E5">
-        <v>1.03069848591065</v>
+        <v>1.053478965849464</v>
       </c>
       <c r="F5">
-        <v>1.038320335511695</v>
+        <v>1.058637151250498</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052325348553171</v>
+        <v>1.036904470803422</v>
       </c>
       <c r="J5">
-        <v>1.031314732388451</v>
+        <v>1.040848695157916</v>
       </c>
       <c r="K5">
-        <v>1.042534592369338</v>
+        <v>1.047702278119581</v>
       </c>
       <c r="L5">
-        <v>1.04022432729202</v>
+        <v>1.055868687368763</v>
       </c>
       <c r="M5">
-        <v>1.047763688475946</v>
+        <v>1.061014628382317</v>
       </c>
       <c r="N5">
-        <v>1.032779317601896</v>
+        <v>1.042326819692054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012889060305861</v>
+        <v>1.036462041730982</v>
       </c>
       <c r="D6">
-        <v>1.033201846298346</v>
+        <v>1.045329548562094</v>
       </c>
       <c r="E6">
-        <v>1.03089175403857</v>
+        <v>1.053524390210936</v>
       </c>
       <c r="F6">
-        <v>1.038518286116726</v>
+        <v>1.058682688107012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052386940246833</v>
+        <v>1.036913615202351</v>
       </c>
       <c r="J6">
-        <v>1.031447322972772</v>
+        <v>1.04087829475914</v>
       </c>
       <c r="K6">
-        <v>1.042664335004911</v>
+        <v>1.047730260194451</v>
       </c>
       <c r="L6">
-        <v>1.040379282651668</v>
+        <v>1.055905457750681</v>
       </c>
       <c r="M6">
-        <v>1.047923666361559</v>
+        <v>1.061051557931024</v>
       </c>
       <c r="N6">
-        <v>1.032912096480056</v>
+        <v>1.042356461328107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011421956209032</v>
+        <v>1.036145841246779</v>
       </c>
       <c r="D7">
-        <v>1.032044780197074</v>
+        <v>1.045077228102591</v>
       </c>
       <c r="E7">
-        <v>1.029558764771143</v>
+        <v>1.05321211170028</v>
       </c>
       <c r="F7">
-        <v>1.03715266901916</v>
+        <v>1.058369600782696</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05196059387392</v>
+        <v>1.036850581013272</v>
       </c>
       <c r="J7">
-        <v>1.030531946660653</v>
+        <v>1.040674714759862</v>
       </c>
       <c r="K7">
-        <v>1.04176836763687</v>
+        <v>1.04753776765513</v>
       </c>
       <c r="L7">
-        <v>1.039310178781451</v>
+        <v>1.055652635478294</v>
       </c>
       <c r="M7">
-        <v>1.046819597181206</v>
+        <v>1.060797605945579</v>
       </c>
       <c r="N7">
-        <v>1.031995420228578</v>
+        <v>1.042152592221879</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005152401358774</v>
+        <v>1.034824184954648</v>
       </c>
       <c r="D8">
-        <v>1.027100498847445</v>
+        <v>1.04402184182625</v>
       </c>
       <c r="E8">
-        <v>1.023883267261455</v>
+        <v>1.051908537800145</v>
       </c>
       <c r="F8">
-        <v>1.031329860097798</v>
+        <v>1.057061767363892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050106683245459</v>
+        <v>1.036583236167323</v>
       </c>
       <c r="J8">
-        <v>1.02661219186214</v>
+        <v>1.039822602808264</v>
       </c>
       <c r="K8">
-        <v>1.037925475009375</v>
+        <v>1.046731129812378</v>
       </c>
       <c r="L8">
-        <v>1.034749158082672</v>
+        <v>1.05459632849223</v>
       </c>
       <c r="M8">
-        <v>1.042101534293187</v>
+        <v>1.05973569899223</v>
       </c>
       <c r="N8">
-        <v>1.028070098928649</v>
+        <v>1.041299270173572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9935435396346742</v>
+        <v>1.032495314752881</v>
       </c>
       <c r="D9">
-        <v>1.017951388944736</v>
+        <v>1.042159434639024</v>
       </c>
       <c r="E9">
-        <v>1.013458545253793</v>
+        <v>1.049617934489681</v>
       </c>
       <c r="F9">
-        <v>1.020602097795587</v>
+        <v>1.054760345725375</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046555074311866</v>
+        <v>1.036097578206454</v>
       </c>
       <c r="J9">
-        <v>1.019326370517311</v>
+        <v>1.038316658122545</v>
       </c>
       <c r="K9">
-        <v>1.03075977986852</v>
+        <v>1.045302049603914</v>
       </c>
       <c r="L9">
-        <v>1.02633697659755</v>
+        <v>1.052736719503336</v>
       </c>
       <c r="M9">
-        <v>1.033369535177596</v>
+        <v>1.057862915292097</v>
       </c>
       <c r="N9">
-        <v>1.020773930881815</v>
+        <v>1.039791186873665</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9853822088852896</v>
+        <v>1.030942786911454</v>
       </c>
       <c r="D10">
-        <v>1.011527840581177</v>
+        <v>1.04091608069364</v>
       </c>
       <c r="E10">
-        <v>1.006190653264248</v>
+        <v>1.048095256712117</v>
       </c>
       <c r="F10">
-        <v>1.013100603234514</v>
+        <v>1.053228228388559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043981501572208</v>
+        <v>1.035764045073667</v>
       </c>
       <c r="J10">
-        <v>1.014188043971029</v>
+        <v>1.037309757696787</v>
       </c>
       <c r="K10">
-        <v>1.025692029645196</v>
+        <v>1.044344206156392</v>
       </c>
       <c r="L10">
-        <v>1.020449025968524</v>
+        <v>1.051498189770117</v>
       </c>
       <c r="M10">
-        <v>1.027237283410506</v>
+        <v>1.056613381115418</v>
       </c>
       <c r="N10">
-        <v>1.015628307322462</v>
+        <v>1.038782856533809</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9817371577546599</v>
+        <v>1.030270539580505</v>
       </c>
       <c r="D11">
-        <v>1.008662032066751</v>
+        <v>1.0403772905146</v>
       </c>
       <c r="E11">
-        <v>1.002960059398859</v>
+        <v>1.047436971306114</v>
       </c>
       <c r="F11">
-        <v>1.00976078032901</v>
+        <v>1.05256532710652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042814774913374</v>
+        <v>1.035617312171189</v>
       </c>
       <c r="J11">
-        <v>1.011889935364772</v>
+        <v>1.036873067860233</v>
       </c>
       <c r="K11">
-        <v>1.023422423262493</v>
+        <v>1.04392824221962</v>
       </c>
       <c r="L11">
-        <v>1.017826368400739</v>
+        <v>1.050962187572086</v>
       </c>
       <c r="M11">
-        <v>1.024500940649578</v>
+        <v>1.056072087346587</v>
       </c>
       <c r="N11">
-        <v>1.013326935138388</v>
+        <v>1.038345546547597</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9803655034544603</v>
+        <v>1.030020838154397</v>
       </c>
       <c r="D12">
-        <v>1.007584176368673</v>
+        <v>1.040177099078529</v>
       </c>
       <c r="E12">
-        <v>1.001746774094502</v>
+        <v>1.047192612351949</v>
       </c>
       <c r="F12">
-        <v>1.008505653637399</v>
+        <v>1.052319174184522</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042373208061555</v>
+        <v>1.035562462264826</v>
       </c>
       <c r="J12">
-        <v>1.011024719425343</v>
+        <v>1.036710757741355</v>
       </c>
       <c r="K12">
-        <v>1.022567503812914</v>
+        <v>1.043773553257697</v>
       </c>
       <c r="L12">
-        <v>1.01684058501162</v>
+        <v>1.050763136535992</v>
       </c>
       <c r="M12">
-        <v>1.023471693050319</v>
+        <v>1.055870991687246</v>
       </c>
       <c r="N12">
-        <v>1.012460490493083</v>
+        <v>1.038183005929734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806605471350666</v>
+        <v>1.030074399904579</v>
       </c>
       <c r="D13">
-        <v>1.007815996627863</v>
+        <v>1.040220043558813</v>
       </c>
       <c r="E13">
-        <v>1.002007642317018</v>
+        <v>1.047245021036354</v>
       </c>
       <c r="F13">
-        <v>1.008775555339362</v>
+        <v>1.05237197127576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042468301916293</v>
+        <v>1.035574243441666</v>
       </c>
       <c r="J13">
-        <v>1.011210846103829</v>
+        <v>1.036745578515962</v>
       </c>
       <c r="K13">
-        <v>1.022751434685135</v>
+        <v>1.043806742766449</v>
       </c>
       <c r="L13">
-        <v>1.017052574875365</v>
+        <v>1.050805831656573</v>
       </c>
       <c r="M13">
-        <v>1.023693062927127</v>
+        <v>1.055914128965616</v>
       </c>
       <c r="N13">
-        <v>1.012646881492801</v>
+        <v>1.038217876153834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9816241440645812</v>
+        <v>1.030249899158735</v>
       </c>
       <c r="D14">
-        <v>1.008573213040166</v>
+        <v>1.040360743863321</v>
       </c>
       <c r="E14">
-        <v>1.002860044665443</v>
+        <v>1.047416769300669</v>
       </c>
       <c r="F14">
-        <v>1.009657333194802</v>
+        <v>1.052544978431563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042778443968367</v>
+        <v>1.035612785332548</v>
       </c>
       <c r="J14">
-        <v>1.011818656546497</v>
+        <v>1.036859653375914</v>
       </c>
       <c r="K14">
-        <v>1.023352001366912</v>
+        <v>1.043915459279747</v>
       </c>
       <c r="L14">
-        <v>1.017745123883881</v>
+        <v>1.050945733049515</v>
       </c>
       <c r="M14">
-        <v>1.024416128891762</v>
+        <v>1.056055465428328</v>
       </c>
       <c r="N14">
-        <v>1.013255555096016</v>
+        <v>1.038332113013173</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9822154679098276</v>
+        <v>1.030358030196961</v>
       </c>
       <c r="D15">
-        <v>1.009037966268686</v>
+        <v>1.040447425934734</v>
       </c>
       <c r="E15">
-        <v>1.003383452376807</v>
+        <v>1.047522609972951</v>
       </c>
       <c r="F15">
-        <v>1.01019867025324</v>
+        <v>1.05265158422289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042968436905595</v>
+        <v>1.03563648632485</v>
       </c>
       <c r="J15">
-        <v>1.012191593240703</v>
+        <v>1.036929924883459</v>
       </c>
       <c r="K15">
-        <v>1.023720437036137</v>
+        <v>1.043982419086576</v>
       </c>
       <c r="L15">
-        <v>1.018170268087773</v>
+        <v>1.051031936768662</v>
       </c>
       <c r="M15">
-        <v>1.024859910206413</v>
+        <v>1.056142542860417</v>
       </c>
       <c r="N15">
-        <v>1.013629021403103</v>
+        <v>1.038402484314318</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9856216918710652</v>
+        <v>1.030987401913833</v>
       </c>
       <c r="D16">
-        <v>1.011716199459837</v>
+        <v>1.040951829857967</v>
       </c>
       <c r="E16">
-        <v>1.006403234385098</v>
+        <v>1.048138967003739</v>
       </c>
       <c r="F16">
-        <v>1.013320258731389</v>
+        <v>1.053272233883833</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044057803005252</v>
+        <v>1.035773734600918</v>
       </c>
       <c r="J16">
-        <v>1.014338969754681</v>
+        <v>1.037338724747271</v>
       </c>
       <c r="K16">
-        <v>1.025841022025093</v>
+        <v>1.044371786838392</v>
       </c>
       <c r="L16">
-        <v>1.020621490034828</v>
+        <v>1.051533768616058</v>
       </c>
       <c r="M16">
-        <v>1.027417121797688</v>
+        <v>1.056649300052369</v>
       </c>
       <c r="N16">
-        <v>1.015779447438039</v>
+        <v>1.038811864720826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9877278737338299</v>
+        <v>1.031382192194464</v>
       </c>
       <c r="D17">
-        <v>1.013373124350133</v>
+        <v>1.041268119974213</v>
       </c>
       <c r="E17">
-        <v>1.008274585504654</v>
+        <v>1.048525871512761</v>
       </c>
       <c r="F17">
-        <v>1.015253270220281</v>
+        <v>1.053661689537422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044726894045847</v>
+        <v>1.035859208425668</v>
       </c>
       <c r="J17">
-        <v>1.015665959664927</v>
+        <v>1.037594968226187</v>
       </c>
       <c r="K17">
-        <v>1.027150667987871</v>
+        <v>1.044615703015778</v>
       </c>
       <c r="L17">
-        <v>1.022139070261007</v>
+        <v>1.05184863234914</v>
       </c>
       <c r="M17">
-        <v>1.028999037574226</v>
+        <v>1.056967112355232</v>
       </c>
       <c r="N17">
-        <v>1.017108321826165</v>
+        <v>1.039068472094874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.988945723672383</v>
+        <v>1.031612467403833</v>
       </c>
       <c r="D18">
-        <v>1.014331489522127</v>
+        <v>1.041452567064206</v>
       </c>
       <c r="E18">
-        <v>1.00935810499057</v>
+        <v>1.048751647063367</v>
       </c>
       <c r="F18">
-        <v>1.016371979771362</v>
+        <v>1.053888902138305</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045112135655874</v>
+        <v>1.035908840870536</v>
       </c>
       <c r="J18">
-        <v>1.016432952712808</v>
+        <v>1.037744363598978</v>
       </c>
       <c r="K18">
-        <v>1.027907344703997</v>
+        <v>1.044757858274952</v>
       </c>
       <c r="L18">
-        <v>1.023017237080238</v>
+        <v>1.052032314917251</v>
       </c>
       <c r="M18">
-        <v>1.029913971435413</v>
+        <v>1.05715246396662</v>
       </c>
       <c r="N18">
-        <v>1.01787640409215</v>
+        <v>1.039218079626231</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9893592022939119</v>
+        <v>1.031690985419851</v>
       </c>
       <c r="D19">
-        <v>1.014656915038104</v>
+        <v>1.041515452017409</v>
       </c>
       <c r="E19">
-        <v>1.009726220623003</v>
+        <v>1.048828647750426</v>
       </c>
       <c r="F19">
-        <v>1.01675196438879</v>
+        <v>1.053966384174522</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045242649804192</v>
+        <v>1.03592572641603</v>
       </c>
       <c r="J19">
-        <v>1.01669330471726</v>
+        <v>1.037795292164826</v>
       </c>
       <c r="K19">
-        <v>1.028164144662608</v>
+        <v>1.044806309695719</v>
       </c>
       <c r="L19">
-        <v>1.023315498092982</v>
+        <v>1.052094950637558</v>
       </c>
       <c r="M19">
-        <v>1.030224641786728</v>
+        <v>1.057215660169266</v>
       </c>
       <c r="N19">
-        <v>1.018137125826311</v>
+        <v>1.039269080516484</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9875030090957067</v>
+        <v>1.031339834858908</v>
       </c>
       <c r="D20">
-        <v>1.013196193719002</v>
+        <v>1.041234189126658</v>
       </c>
       <c r="E20">
-        <v>1.00807464076088</v>
+        <v>1.048484349900013</v>
       </c>
       <c r="F20">
-        <v>1.015046790488358</v>
+        <v>1.053619899485235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044655629251099</v>
+        <v>1.035850060955199</v>
       </c>
       <c r="J20">
-        <v>1.015524316282587</v>
+        <v>1.03756748266487</v>
       </c>
       <c r="K20">
-        <v>1.027010905994805</v>
+        <v>1.044589545207794</v>
       </c>
       <c r="L20">
-        <v>1.021976977913953</v>
+        <v>1.051814847562469</v>
       </c>
       <c r="M20">
-        <v>1.02883012146104</v>
+        <v>1.056933016470082</v>
       </c>
       <c r="N20">
-        <v>1.016966477293976</v>
+        <v>1.039040947500908</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9813408865640283</v>
+        <v>1.030198218970116</v>
       </c>
       <c r="D21">
-        <v>1.008350606484688</v>
+        <v>1.040319312801925</v>
       </c>
       <c r="E21">
-        <v>1.002609406811153</v>
+        <v>1.047366189362712</v>
       </c>
       <c r="F21">
-        <v>1.009398080481115</v>
+        <v>1.052494029974211</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042687343775859</v>
+        <v>1.035601445275707</v>
       </c>
       <c r="J21">
-        <v>1.01163999669625</v>
+        <v>1.036826064042611</v>
       </c>
       <c r="K21">
-        <v>1.023175482483775</v>
+        <v>1.043883449980258</v>
       </c>
       <c r="L21">
-        <v>1.017541511244177</v>
+        <v>1.050904534355767</v>
       </c>
       <c r="M21">
-        <v>1.024203564319656</v>
+        <v>1.056013846325698</v>
       </c>
       <c r="N21">
-        <v>1.013076641528288</v>
+        <v>1.038298475979163</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773634258678261</v>
+        <v>1.02948044650697</v>
       </c>
       <c r="D22">
-        <v>1.005226275649546</v>
+        <v>1.039743742507607</v>
       </c>
       <c r="E22">
-        <v>0.9990958425208373</v>
+        <v>1.046664069361643</v>
       </c>
       <c r="F22">
-        <v>1.005761785253824</v>
+        <v>1.051786603486722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041402223638484</v>
+        <v>1.035443124606292</v>
       </c>
       <c r="J22">
-        <v>1.009130346547091</v>
+        <v>1.036359302802515</v>
       </c>
       <c r="K22">
-        <v>1.02069490513514</v>
+        <v>1.043438450434107</v>
       </c>
       <c r="L22">
-        <v>1.014685232251683</v>
+        <v>1.050332439430137</v>
       </c>
       <c r="M22">
-        <v>1.021219957714238</v>
+        <v>1.055435725059332</v>
       </c>
       <c r="N22">
-        <v>1.010563427388057</v>
+        <v>1.037831051884568</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9794820878326995</v>
+        <v>1.029860950616338</v>
       </c>
       <c r="D23">
-        <v>1.006890154104366</v>
+        <v>1.040048896245083</v>
       </c>
       <c r="E23">
-        <v>1.000966045969716</v>
+        <v>1.047036189791107</v>
       </c>
       <c r="F23">
-        <v>1.007697769265161</v>
+        <v>1.05216158055444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04208811627524</v>
+        <v>1.035527243411501</v>
       </c>
       <c r="J23">
-        <v>1.010467364002719</v>
+        <v>1.036606798693043</v>
       </c>
       <c r="K23">
-        <v>1.022016662117689</v>
+        <v>1.043674452402163</v>
       </c>
       <c r="L23">
-        <v>1.01620602116851</v>
+        <v>1.050635693401343</v>
       </c>
       <c r="M23">
-        <v>1.022808943751387</v>
+        <v>1.055742217081957</v>
       </c>
       <c r="N23">
-        <v>1.011902343561829</v>
+        <v>1.038078899247649</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9876046485840582</v>
+        <v>1.031358974313233</v>
       </c>
       <c r="D24">
-        <v>1.013276166008714</v>
+        <v>1.041249521138433</v>
       </c>
       <c r="E24">
-        <v>1.008165011876666</v>
+        <v>1.048503111418392</v>
       </c>
       <c r="F24">
-        <v>1.015140116876031</v>
+        <v>1.05363878245737</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468784625784</v>
+        <v>1.035854194992347</v>
       </c>
       <c r="J24">
-        <v>1.015588340472848</v>
+        <v>1.037579902414244</v>
       </c>
       <c r="K24">
-        <v>1.027074080685374</v>
+        <v>1.044601365156505</v>
       </c>
       <c r="L24">
-        <v>1.022050242092226</v>
+        <v>1.051830113367153</v>
       </c>
       <c r="M24">
-        <v>1.028906471346726</v>
+        <v>1.056948423003752</v>
       </c>
       <c r="N24">
-        <v>1.017030592405931</v>
+        <v>1.03905338488775</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9966156194792224</v>
+        <v>1.033097375314754</v>
       </c>
       <c r="D25">
-        <v>1.020371414744816</v>
+        <v>1.042641223754094</v>
       </c>
       <c r="E25">
-        <v>1.016207080270495</v>
+        <v>1.050209339852901</v>
       </c>
       <c r="F25">
-        <v>1.023434356676549</v>
+        <v>1.055354940448401</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047508413347466</v>
+        <v>1.036224855050518</v>
       </c>
       <c r="J25">
-        <v>1.02125742081409</v>
+        <v>1.038706500876611</v>
       </c>
       <c r="K25">
-        <v>1.032661512344266</v>
+        <v>1.045672407096867</v>
       </c>
       <c r="L25">
-        <v>1.028558906031312</v>
+        <v>1.053217262753182</v>
       </c>
       <c r="M25">
-        <v>1.035679459041152</v>
+        <v>1.058347256182799</v>
       </c>
       <c r="N25">
-        <v>1.02270772349151</v>
+        <v>1.040181583249157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03448393990524</v>
+        <v>1.003501820257063</v>
       </c>
       <c r="D2">
-        <v>1.043749958186429</v>
+        <v>1.02579905568435</v>
       </c>
       <c r="E2">
-        <v>1.051573381290483</v>
+        <v>1.022394545332612</v>
       </c>
       <c r="F2">
-        <v>1.056725289445023</v>
+        <v>1.029800344658972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036513421144449</v>
+        <v>1.049610575630136</v>
       </c>
       <c r="J2">
-        <v>1.03960293354099</v>
+        <v>1.025578294586543</v>
       </c>
       <c r="K2">
-        <v>1.046522945324339</v>
+        <v>1.036910298802175</v>
       </c>
       <c r="L2">
-        <v>1.05432450838179</v>
+        <v>1.033550461623139</v>
       </c>
       <c r="M2">
-        <v>1.059462212687779</v>
+        <v>1.040859556365804</v>
       </c>
       <c r="N2">
-        <v>1.041079288950741</v>
+        <v>1.027034733400334</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035490721134951</v>
+        <v>1.00834221051462</v>
       </c>
       <c r="D3">
-        <v>1.044554239357529</v>
+        <v>1.029615915310339</v>
       </c>
       <c r="E3">
-        <v>1.052565616933042</v>
+        <v>1.026766662383421</v>
       </c>
       <c r="F3">
-        <v>1.05772117011777</v>
+        <v>1.034289757254064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03671883634696</v>
+        <v>1.051056164001834</v>
       </c>
       <c r="J3">
-        <v>1.040252575667629</v>
+        <v>1.028608013311167</v>
       </c>
       <c r="K3">
-        <v>1.04713834262913</v>
+        <v>1.039883375418462</v>
       </c>
       <c r="L3">
-        <v>1.055128955602534</v>
+        <v>1.037068141247402</v>
       </c>
       <c r="M3">
-        <v>1.060271325536641</v>
+        <v>1.044501916417936</v>
       </c>
       <c r="N3">
-        <v>1.041729853643715</v>
+        <v>1.030068754673056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036142181717929</v>
+        <v>1.011404903378828</v>
       </c>
       <c r="D4">
-        <v>1.045074307479887</v>
+        <v>1.03203133107639</v>
       </c>
       <c r="E4">
-        <v>1.05320849848678</v>
+        <v>1.029543281985541</v>
       </c>
       <c r="F4">
-        <v>1.058365977726534</v>
+        <v>1.037136802720275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036849849364788</v>
+        <v>1.051955620788114</v>
       </c>
       <c r="J4">
-        <v>1.04067235798581</v>
+        <v>1.030521302389311</v>
       </c>
       <c r="K4">
-        <v>1.047535538723946</v>
+        <v>1.041757945622819</v>
       </c>
       <c r="L4">
-        <v>1.055649709693872</v>
+        <v>1.039297756115507</v>
       </c>
       <c r="M4">
-        <v>1.060794666604938</v>
+        <v>1.046806763961502</v>
       </c>
       <c r="N4">
-        <v>1.042150232100938</v>
+        <v>1.031984760841149</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03641605683796</v>
+        <v>1.012676477183875</v>
       </c>
       <c r="D5">
-        <v>1.045292858037538</v>
+        <v>1.033034188108229</v>
       </c>
       <c r="E5">
-        <v>1.053478965849464</v>
+        <v>1.03069848591065</v>
       </c>
       <c r="F5">
-        <v>1.058637151250498</v>
+        <v>1.038320335511695</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036904470803422</v>
+        <v>1.052325348553171</v>
       </c>
       <c r="J5">
-        <v>1.040848695157916</v>
+        <v>1.031314732388451</v>
       </c>
       <c r="K5">
-        <v>1.047702278119581</v>
+        <v>1.042534592369338</v>
       </c>
       <c r="L5">
-        <v>1.055868687368763</v>
+        <v>1.04022432729202</v>
       </c>
       <c r="M5">
-        <v>1.061014628382317</v>
+        <v>1.047763688475945</v>
       </c>
       <c r="N5">
-        <v>1.042326819692054</v>
+        <v>1.032779317601895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036462041730982</v>
+        <v>1.012889060305861</v>
       </c>
       <c r="D6">
-        <v>1.045329548562094</v>
+        <v>1.033201846298347</v>
       </c>
       <c r="E6">
-        <v>1.053524390210936</v>
+        <v>1.030891754038571</v>
       </c>
       <c r="F6">
-        <v>1.058682688107012</v>
+        <v>1.038518286116727</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036913615202351</v>
+        <v>1.052386940246834</v>
       </c>
       <c r="J6">
-        <v>1.04087829475914</v>
+        <v>1.031447322972773</v>
       </c>
       <c r="K6">
-        <v>1.047730260194451</v>
+        <v>1.042664335004911</v>
       </c>
       <c r="L6">
-        <v>1.055905457750681</v>
+        <v>1.040379282651668</v>
       </c>
       <c r="M6">
-        <v>1.061051557931024</v>
+        <v>1.04792366636156</v>
       </c>
       <c r="N6">
-        <v>1.042356461328107</v>
+        <v>1.032912096480056</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036145841246779</v>
+        <v>1.011421956209033</v>
       </c>
       <c r="D7">
-        <v>1.045077228102591</v>
+        <v>1.032044780197074</v>
       </c>
       <c r="E7">
-        <v>1.05321211170028</v>
+        <v>1.029558764771144</v>
       </c>
       <c r="F7">
-        <v>1.058369600782696</v>
+        <v>1.037152669019161</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036850581013272</v>
+        <v>1.05196059387392</v>
       </c>
       <c r="J7">
-        <v>1.040674714759862</v>
+        <v>1.030531946660654</v>
       </c>
       <c r="K7">
-        <v>1.04753776765513</v>
+        <v>1.041768367636871</v>
       </c>
       <c r="L7">
-        <v>1.055652635478294</v>
+        <v>1.039310178781452</v>
       </c>
       <c r="M7">
-        <v>1.060797605945579</v>
+        <v>1.046819597181207</v>
       </c>
       <c r="N7">
-        <v>1.042152592221879</v>
+        <v>1.031995420228579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034824184954648</v>
+        <v>1.005152401358773</v>
       </c>
       <c r="D8">
-        <v>1.04402184182625</v>
+        <v>1.027100498847443</v>
       </c>
       <c r="E8">
-        <v>1.051908537800145</v>
+        <v>1.023883267261454</v>
       </c>
       <c r="F8">
-        <v>1.057061767363892</v>
+        <v>1.031329860097797</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036583236167323</v>
+        <v>1.050106683245458</v>
       </c>
       <c r="J8">
-        <v>1.039822602808264</v>
+        <v>1.026612191862139</v>
       </c>
       <c r="K8">
-        <v>1.046731129812378</v>
+        <v>1.037925475009374</v>
       </c>
       <c r="L8">
-        <v>1.05459632849223</v>
+        <v>1.034749158082671</v>
       </c>
       <c r="M8">
-        <v>1.05973569899223</v>
+        <v>1.042101534293186</v>
       </c>
       <c r="N8">
-        <v>1.041299270173572</v>
+        <v>1.028070098928648</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032495314752881</v>
+        <v>0.9935435396346741</v>
       </c>
       <c r="D9">
-        <v>1.042159434639024</v>
+        <v>1.017951388944736</v>
       </c>
       <c r="E9">
-        <v>1.049617934489681</v>
+        <v>1.013458545253794</v>
       </c>
       <c r="F9">
-        <v>1.054760345725375</v>
+        <v>1.020602097795588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036097578206454</v>
+        <v>1.046555074311866</v>
       </c>
       <c r="J9">
-        <v>1.038316658122545</v>
+        <v>1.019326370517311</v>
       </c>
       <c r="K9">
-        <v>1.045302049603914</v>
+        <v>1.03075977986852</v>
       </c>
       <c r="L9">
-        <v>1.052736719503336</v>
+        <v>1.02633697659755</v>
       </c>
       <c r="M9">
-        <v>1.057862915292097</v>
+        <v>1.033369535177597</v>
       </c>
       <c r="N9">
-        <v>1.039791186873665</v>
+        <v>1.020773930881815</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030942786911454</v>
+        <v>0.9853822088852887</v>
       </c>
       <c r="D10">
-        <v>1.04091608069364</v>
+        <v>1.011527840581176</v>
       </c>
       <c r="E10">
-        <v>1.048095256712117</v>
+        <v>1.006190653264248</v>
       </c>
       <c r="F10">
-        <v>1.053228228388559</v>
+        <v>1.013100603234513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035764045073667</v>
+        <v>1.043981501572208</v>
       </c>
       <c r="J10">
-        <v>1.037309757696787</v>
+        <v>1.014188043971028</v>
       </c>
       <c r="K10">
-        <v>1.044344206156392</v>
+        <v>1.025692029645195</v>
       </c>
       <c r="L10">
-        <v>1.051498189770117</v>
+        <v>1.020449025968523</v>
       </c>
       <c r="M10">
-        <v>1.056613381115418</v>
+        <v>1.027237283410506</v>
       </c>
       <c r="N10">
-        <v>1.038782856533809</v>
+        <v>1.015628307322462</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030270539580505</v>
+        <v>0.9817371577546604</v>
       </c>
       <c r="D11">
-        <v>1.0403772905146</v>
+        <v>1.008662032066751</v>
       </c>
       <c r="E11">
-        <v>1.047436971306114</v>
+        <v>1.00296005939886</v>
       </c>
       <c r="F11">
-        <v>1.05256532710652</v>
+        <v>1.009760780329011</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035617312171189</v>
+        <v>1.042814774913374</v>
       </c>
       <c r="J11">
-        <v>1.036873067860233</v>
+        <v>1.011889935364772</v>
       </c>
       <c r="K11">
-        <v>1.04392824221962</v>
+        <v>1.023422423262494</v>
       </c>
       <c r="L11">
-        <v>1.050962187572086</v>
+        <v>1.01782636840074</v>
       </c>
       <c r="M11">
-        <v>1.056072087346587</v>
+        <v>1.024500940649579</v>
       </c>
       <c r="N11">
-        <v>1.038345546547597</v>
+        <v>1.013326935138388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030020838154397</v>
+        <v>0.9803655034544611</v>
       </c>
       <c r="D12">
-        <v>1.040177099078529</v>
+        <v>1.007584176368674</v>
       </c>
       <c r="E12">
-        <v>1.047192612351949</v>
+        <v>1.001746774094502</v>
       </c>
       <c r="F12">
-        <v>1.052319174184522</v>
+        <v>1.008505653637399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035562462264826</v>
+        <v>1.042373208061556</v>
       </c>
       <c r="J12">
-        <v>1.036710757741355</v>
+        <v>1.011024719425344</v>
       </c>
       <c r="K12">
-        <v>1.043773553257697</v>
+        <v>1.022567503812915</v>
       </c>
       <c r="L12">
-        <v>1.050763136535992</v>
+        <v>1.01684058501162</v>
       </c>
       <c r="M12">
-        <v>1.055870991687246</v>
+        <v>1.02347169305032</v>
       </c>
       <c r="N12">
-        <v>1.038183005929734</v>
+        <v>1.012460490493084</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030074399904579</v>
+        <v>0.9806605471350667</v>
       </c>
       <c r="D13">
-        <v>1.040220043558813</v>
+        <v>1.007815996627863</v>
       </c>
       <c r="E13">
-        <v>1.047245021036354</v>
+        <v>1.002007642317019</v>
       </c>
       <c r="F13">
-        <v>1.05237197127576</v>
+        <v>1.008775555339363</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035574243441666</v>
+        <v>1.042468301916293</v>
       </c>
       <c r="J13">
-        <v>1.036745578515962</v>
+        <v>1.011210846103829</v>
       </c>
       <c r="K13">
-        <v>1.043806742766449</v>
+        <v>1.022751434685135</v>
       </c>
       <c r="L13">
-        <v>1.050805831656573</v>
+        <v>1.017052574875366</v>
       </c>
       <c r="M13">
-        <v>1.055914128965616</v>
+        <v>1.023693062927127</v>
       </c>
       <c r="N13">
-        <v>1.038217876153834</v>
+        <v>1.012646881492802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030249899158735</v>
+        <v>0.9816241440645811</v>
       </c>
       <c r="D14">
-        <v>1.040360743863321</v>
+        <v>1.008573213040167</v>
       </c>
       <c r="E14">
-        <v>1.047416769300669</v>
+        <v>1.002860044665443</v>
       </c>
       <c r="F14">
-        <v>1.052544978431563</v>
+        <v>1.009657333194803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035612785332548</v>
+        <v>1.042778443968367</v>
       </c>
       <c r="J14">
-        <v>1.036859653375914</v>
+        <v>1.011818656546497</v>
       </c>
       <c r="K14">
-        <v>1.043915459279747</v>
+        <v>1.023352001366913</v>
       </c>
       <c r="L14">
-        <v>1.050945733049515</v>
+        <v>1.017745123883882</v>
       </c>
       <c r="M14">
-        <v>1.056055465428328</v>
+        <v>1.024416128891762</v>
       </c>
       <c r="N14">
-        <v>1.038332113013173</v>
+        <v>1.013255555096016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030358030196961</v>
+        <v>0.9822154679098264</v>
       </c>
       <c r="D15">
-        <v>1.040447425934734</v>
+        <v>1.009037966268684</v>
       </c>
       <c r="E15">
-        <v>1.047522609972951</v>
+        <v>1.003383452376806</v>
       </c>
       <c r="F15">
-        <v>1.05265158422289</v>
+        <v>1.01019867025324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03563648632485</v>
+        <v>1.042968436905594</v>
       </c>
       <c r="J15">
-        <v>1.036929924883459</v>
+        <v>1.012191593240701</v>
       </c>
       <c r="K15">
-        <v>1.043982419086576</v>
+        <v>1.023720437036135</v>
       </c>
       <c r="L15">
-        <v>1.051031936768662</v>
+        <v>1.018170268087772</v>
       </c>
       <c r="M15">
-        <v>1.056142542860417</v>
+        <v>1.024859910206412</v>
       </c>
       <c r="N15">
-        <v>1.038402484314318</v>
+        <v>1.013629021403102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030987401913833</v>
+        <v>0.9856216918710643</v>
       </c>
       <c r="D16">
-        <v>1.040951829857967</v>
+        <v>1.011716199459836</v>
       </c>
       <c r="E16">
-        <v>1.048138967003739</v>
+        <v>1.006403234385099</v>
       </c>
       <c r="F16">
-        <v>1.053272233883833</v>
+        <v>1.013320258731389</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035773734600918</v>
+        <v>1.044057803005251</v>
       </c>
       <c r="J16">
-        <v>1.037338724747271</v>
+        <v>1.01433896975468</v>
       </c>
       <c r="K16">
-        <v>1.044371786838392</v>
+        <v>1.025841022025092</v>
       </c>
       <c r="L16">
-        <v>1.051533768616058</v>
+        <v>1.020621490034829</v>
       </c>
       <c r="M16">
-        <v>1.056649300052369</v>
+        <v>1.027417121797688</v>
       </c>
       <c r="N16">
-        <v>1.038811864720826</v>
+        <v>1.015779447438038</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031382192194464</v>
+        <v>0.98772787373383</v>
       </c>
       <c r="D17">
-        <v>1.041268119974213</v>
+        <v>1.013373124350133</v>
       </c>
       <c r="E17">
-        <v>1.048525871512761</v>
+        <v>1.008274585504654</v>
       </c>
       <c r="F17">
-        <v>1.053661689537422</v>
+        <v>1.015253270220281</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035859208425668</v>
+        <v>1.044726894045847</v>
       </c>
       <c r="J17">
-        <v>1.037594968226187</v>
+        <v>1.015665959664927</v>
       </c>
       <c r="K17">
-        <v>1.044615703015778</v>
+        <v>1.027150667987871</v>
       </c>
       <c r="L17">
-        <v>1.05184863234914</v>
+        <v>1.022139070261007</v>
       </c>
       <c r="M17">
-        <v>1.056967112355232</v>
+        <v>1.028999037574227</v>
       </c>
       <c r="N17">
-        <v>1.039068472094874</v>
+        <v>1.017108321826165</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031612467403833</v>
+        <v>0.9889457236723834</v>
       </c>
       <c r="D18">
-        <v>1.041452567064206</v>
+        <v>1.014331489522127</v>
       </c>
       <c r="E18">
-        <v>1.048751647063367</v>
+        <v>1.00935810499057</v>
       </c>
       <c r="F18">
-        <v>1.053888902138305</v>
+        <v>1.016371979771362</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035908840870536</v>
+        <v>1.045112135655874</v>
       </c>
       <c r="J18">
-        <v>1.037744363598978</v>
+        <v>1.016432952712808</v>
       </c>
       <c r="K18">
-        <v>1.044757858274952</v>
+        <v>1.027907344703997</v>
       </c>
       <c r="L18">
-        <v>1.052032314917251</v>
+        <v>1.023017237080238</v>
       </c>
       <c r="M18">
-        <v>1.05715246396662</v>
+        <v>1.029913971435413</v>
       </c>
       <c r="N18">
-        <v>1.039218079626231</v>
+        <v>1.01787640409215</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031690985419851</v>
+        <v>0.9893592022939121</v>
       </c>
       <c r="D19">
-        <v>1.041515452017409</v>
+        <v>1.014656915038104</v>
       </c>
       <c r="E19">
-        <v>1.048828647750426</v>
+        <v>1.009726220623003</v>
       </c>
       <c r="F19">
-        <v>1.053966384174522</v>
+        <v>1.01675196438879</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03592572641603</v>
+        <v>1.045242649804192</v>
       </c>
       <c r="J19">
-        <v>1.037795292164826</v>
+        <v>1.01669330471726</v>
       </c>
       <c r="K19">
-        <v>1.044806309695719</v>
+        <v>1.028164144662608</v>
       </c>
       <c r="L19">
-        <v>1.052094950637558</v>
+        <v>1.023315498092982</v>
       </c>
       <c r="M19">
-        <v>1.057215660169266</v>
+        <v>1.030224641786728</v>
       </c>
       <c r="N19">
-        <v>1.039269080516484</v>
+        <v>1.018137125826311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031339834858908</v>
+        <v>0.9875030090957067</v>
       </c>
       <c r="D20">
-        <v>1.041234189126658</v>
+        <v>1.013196193719002</v>
       </c>
       <c r="E20">
-        <v>1.048484349900013</v>
+        <v>1.008074640760881</v>
       </c>
       <c r="F20">
-        <v>1.053619899485235</v>
+        <v>1.015046790488358</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035850060955199</v>
+        <v>1.044655629251099</v>
       </c>
       <c r="J20">
-        <v>1.03756748266487</v>
+        <v>1.015524316282587</v>
       </c>
       <c r="K20">
-        <v>1.044589545207794</v>
+        <v>1.027010905994805</v>
       </c>
       <c r="L20">
-        <v>1.051814847562469</v>
+        <v>1.021976977913954</v>
       </c>
       <c r="M20">
-        <v>1.056933016470082</v>
+        <v>1.02883012146104</v>
       </c>
       <c r="N20">
-        <v>1.039040947500908</v>
+        <v>1.016966477293976</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030198218970116</v>
+        <v>0.9813408865640278</v>
       </c>
       <c r="D21">
-        <v>1.040319312801925</v>
+        <v>1.008350606484688</v>
       </c>
       <c r="E21">
-        <v>1.047366189362712</v>
+        <v>1.002609406811153</v>
       </c>
       <c r="F21">
-        <v>1.052494029974211</v>
+        <v>1.009398080481115</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035601445275707</v>
+        <v>1.042687343775859</v>
       </c>
       <c r="J21">
-        <v>1.036826064042611</v>
+        <v>1.01163999669625</v>
       </c>
       <c r="K21">
-        <v>1.043883449980258</v>
+        <v>1.023175482483775</v>
       </c>
       <c r="L21">
-        <v>1.050904534355767</v>
+        <v>1.017541511244177</v>
       </c>
       <c r="M21">
-        <v>1.056013846325698</v>
+        <v>1.024203564319656</v>
       </c>
       <c r="N21">
-        <v>1.038298475979163</v>
+        <v>1.013076641528288</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02948044650697</v>
+        <v>0.9773634258678259</v>
       </c>
       <c r="D22">
-        <v>1.039743742507607</v>
+        <v>1.005226275649546</v>
       </c>
       <c r="E22">
-        <v>1.046664069361643</v>
+        <v>0.9990958425208372</v>
       </c>
       <c r="F22">
-        <v>1.051786603486722</v>
+        <v>1.005761785253824</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035443124606292</v>
+        <v>1.041402223638483</v>
       </c>
       <c r="J22">
-        <v>1.036359302802515</v>
+        <v>1.009130346547091</v>
       </c>
       <c r="K22">
-        <v>1.043438450434107</v>
+        <v>1.02069490513514</v>
       </c>
       <c r="L22">
-        <v>1.050332439430137</v>
+        <v>1.014685232251683</v>
       </c>
       <c r="M22">
-        <v>1.055435725059332</v>
+        <v>1.021219957714238</v>
       </c>
       <c r="N22">
-        <v>1.037831051884568</v>
+        <v>1.010563427388057</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029860950616338</v>
+        <v>0.9794820878326992</v>
       </c>
       <c r="D23">
-        <v>1.040048896245083</v>
+        <v>1.006890154104366</v>
       </c>
       <c r="E23">
-        <v>1.047036189791107</v>
+        <v>1.000966045969716</v>
       </c>
       <c r="F23">
-        <v>1.05216158055444</v>
+        <v>1.007697769265161</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035527243411501</v>
+        <v>1.04208811627524</v>
       </c>
       <c r="J23">
-        <v>1.036606798693043</v>
+        <v>1.010467364002719</v>
       </c>
       <c r="K23">
-        <v>1.043674452402163</v>
+        <v>1.022016662117689</v>
       </c>
       <c r="L23">
-        <v>1.050635693401343</v>
+        <v>1.01620602116851</v>
       </c>
       <c r="M23">
-        <v>1.055742217081957</v>
+        <v>1.022808943751387</v>
       </c>
       <c r="N23">
-        <v>1.038078899247649</v>
+        <v>1.011902343561829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031358974313233</v>
+        <v>0.9876046485840574</v>
       </c>
       <c r="D24">
-        <v>1.041249521138433</v>
+        <v>1.013276166008713</v>
       </c>
       <c r="E24">
-        <v>1.048503111418392</v>
+        <v>1.008165011876665</v>
       </c>
       <c r="F24">
-        <v>1.05363878245737</v>
+        <v>1.01514011687603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035854194992347</v>
+        <v>1.044687846257839</v>
       </c>
       <c r="J24">
-        <v>1.037579902414244</v>
+        <v>1.015588340472848</v>
       </c>
       <c r="K24">
-        <v>1.044601365156505</v>
+        <v>1.027074080685374</v>
       </c>
       <c r="L24">
-        <v>1.051830113367153</v>
+        <v>1.022050242092225</v>
       </c>
       <c r="M24">
-        <v>1.056948423003752</v>
+        <v>1.028906471346725</v>
       </c>
       <c r="N24">
-        <v>1.03905338488775</v>
+        <v>1.01703059240593</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033097375314754</v>
+        <v>0.9966156194792226</v>
       </c>
       <c r="D25">
-        <v>1.042641223754094</v>
+        <v>1.020371414744816</v>
       </c>
       <c r="E25">
-        <v>1.050209339852901</v>
+        <v>1.016207080270495</v>
       </c>
       <c r="F25">
-        <v>1.055354940448401</v>
+        <v>1.023434356676549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036224855050518</v>
+        <v>1.047508413347467</v>
       </c>
       <c r="J25">
-        <v>1.038706500876611</v>
+        <v>1.021257420814091</v>
       </c>
       <c r="K25">
-        <v>1.045672407096867</v>
+        <v>1.032661512344266</v>
       </c>
       <c r="L25">
-        <v>1.053217262753182</v>
+        <v>1.028558906031312</v>
       </c>
       <c r="M25">
-        <v>1.058347256182799</v>
+        <v>1.035679459041152</v>
       </c>
       <c r="N25">
-        <v>1.040181583249157</v>
+        <v>1.02270772349151</v>
       </c>
     </row>
   </sheetData>
